--- a/invoice.xlsx
+++ b/invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSBC\Desktop\qlikdata\link table data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC88A01B-9BA8-4C8F-8030-ED81468E3014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C816486-32E4-40A5-9DF4-A3A881A38E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{FA68A2E0-6372-4666-A578-187DFD6D4206}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Product_ID</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>GOLD</t>
+  </si>
+  <si>
+    <t>BRONZE</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5"/>
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,7 +767,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,7 +786,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>4201</v>
+        <v>8001</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4202</v>
+        <v>8002</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -799,7 +802,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>4203</v>
+        <v>8003</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4204</v>
+        <v>8004</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -823,7 +826,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,10 +957,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B470D9-6E96-4743-B4F6-86C4A78D28A7}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,41 +969,59 @@
     <col min="2" max="2" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>12001</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>12002</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>12003</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
+      </c>
+      <c r="B5">
+        <v>12004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
